--- a/説明変数.ver.0.2.xlsx
+++ b/説明変数.ver.0.2.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279433C2-B678-2E40-9793-E2A3EB86B509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEC353-6599-814D-A273-E5C67ACA7597}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="560" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="400" yWindow="1320" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">項目一覧!$B$2:$K$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">項目一覧!$B$2:$K$75</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="162">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -196,10 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GX_25_50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴールデンクロス（25線と50日線）</t>
     <rPh sb="11" eb="12">
       <t>セン</t>
@@ -213,57 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GX_25_75</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールデンクロス（25線と75日線）</t>
-    <rPh sb="11" eb="12">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DX_25_50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DX_25_75</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッドクロス（25線と50日線）</t>
-    <rPh sb="9" eb="10">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッドクロス（25線と75日線）</t>
-    <rPh sb="9" eb="10">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動平均クロス</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -845,14 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MA25_devi_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MA25_devi_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[0,]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,38 +867,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLGR_sigma_p_devi_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_sigma_p_devi_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_2sigma_p_devi_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_2sigma_p_devi_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_sigma_m_devi_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_sigma_m_devi_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_2sigma_m_devi_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_2sigma_m_devi_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25日移動平均線からシグマ（正）</t>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
@@ -1107,10 +1007,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wd_Thusday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>wd_Wednesday</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1163,57 +1059,181 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボリンジャー　１シグマからの乖離率</t>
+    <t>BLGR_2sigma_p_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_m_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_m_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　上方１シグマからの乖離率</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボリンジャー　１シグマからの乖離率（正）</t>
+    <t>ボリンジャー　上方１シグマからの乖離率（正）</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボリンジャー　１シグマからの乖離率（負）</t>
+    <t>ボリンジャー　上方１シグマからの乖離率（負）</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLGR_2sigma_p_devi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボリンジャー　２シグマからの乖離率</t>
+    <t>ボリンジャー　上方２シグマからの乖離率</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボリンジャー　２シグマからの乖離率（正）</t>
+    <t>ボリンジャー　上方２シグマからの乖離率（正）</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボリンジャー　２シグマからの乖離率（負）</t>
+    <t>ボリンジャー　上方２シグマからの乖離率（負）</t>
     <rPh sb="0" eb="3">
       <t>カイリイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLGR_sigma_m_devi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLGR_2sigma_m_devi</t>
+    <t>ボリンジャー　下方１シグマからの乖離率</t>
+    <rPh sb="0" eb="2">
+      <t>カホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA25_dev_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA25_dev_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_p_dev_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_p_dev_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_p_dev_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_p_dev_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_m_dev_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_m_dev_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_m_dev_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_m_dev_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_50_-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_50_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッドクロス（２５＆５０）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_75_-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_25_75_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッドクロス（２５＆７５）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_50_75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_50_75_-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross_50_75_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２５日移動平均の傾き（正のときのみ表示）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２５日移動平均の傾き（負のときのみ表示）</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５０日移動平均の傾き（正のときのみ表示）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５０日移動平均の傾き（負のときのみ表示）</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７５日移動平均の傾き（正のときのみ表示）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７５日移動平均の傾き（負のときのみ表示）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1582,18 +1602,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <dimension ref="B1:L70"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1605,12 +1626,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1619,22 +1640,22 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,66 +1676,72 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K3" t="str">
         <f>"'"&amp;D3&amp;"'"&amp;","</f>
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B70" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B75" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K70" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
+        <f t="shared" ref="K4:K75" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
@@ -1727,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1736,10 +1763,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6" si="2">"'"&amp;D6&amp;"'"&amp;","</f>
@@ -1752,23 +1779,23 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>'wd_Thusday',</v>
+        <v>'wd_Thursday',</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,19 +1804,19 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -1802,19 +1829,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K9" t="str">
         <f>"'"&amp;D9&amp;"'"&amp;","</f>
@@ -1827,147 +1854,162 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>'wd_Friday',</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>'price_start',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>'price_high',</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>'price_low',</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>'price_close',</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
         <v>54</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>'price_start',</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>'price_high',</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>'price_low',</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>'price_close',</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -1980,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1989,13 +2031,13 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -2008,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -2017,41 +2059,44 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>'down_flg',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>'down_flg',</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -2064,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -2073,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -2092,7 +2137,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2101,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -2120,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2129,13 +2174,13 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -2148,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2157,13 +2202,13 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2221,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2185,13 +2230,13 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -2204,7 +2249,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2213,13 +2258,13 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
         <v>87</v>
-      </c>
-      <c r="I24" t="s">
-        <v>94</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
@@ -2232,10 +2277,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2244,20 +2289,20 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>'up_must_length',</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,7 +2311,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2275,13 +2320,13 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
@@ -2294,7 +2339,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -2303,20 +2348,20 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
         <v>'box_length',</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2330,11 +2375,14 @@
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
@@ -2350,7 +2398,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -2359,13 +2407,13 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
@@ -2378,7 +2426,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -2387,38 +2435,41 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>'RCI9_m',</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -2431,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -2440,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
@@ -2456,7 +2507,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
@@ -2465,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
@@ -2493,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>12</v>
@@ -2509,7 +2560,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -2518,20 +2569,20 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2546,13 +2597,13 @@
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -2562,7 +2613,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2574,13 +2625,13 @@
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -2590,7 +2641,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2602,13 +2653,13 @@
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -2618,35 +2669,29 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
-        <v>'GX_25_50',</v>
+        <v>'cross_25_50',</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,7 +2700,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -2664,17 +2709,17 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
-        <v>'GX_25_75',</v>
+        <v>'cross_25_50_-1',</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2692,45 +2737,39 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>'DX_25_50',</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_25_50_1',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
-        <v>'DX_25_75',</v>
+        <v>'cross_25_75',</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2738,30 +2777,27 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" t="s">
-        <v>36</v>
+        <v>80</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_slope',</v>
+        <v>'cross_25_75_-1',</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,7 +2806,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -2779,39 +2815,39 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_slope_p',</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_25_75_1',</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_slope_m',</v>
+        <v>'cross_50_75',</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2820,23 +2856,26 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
-        <v>'MA50_slope',</v>
+        <v>'cross_50_75_-1',</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,7 +2884,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -2854,39 +2893,48 @@
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
-        <v>'MA50_slope_p',</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_50_75_1',</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="1"/>
-        <v>'MA50_slope_m',</v>
+        <v>'MA25_slope',</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,26 +2943,26 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
-        <v>'MA75_slope',</v>
+        <v>'MA25_slope_p',</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,7 +2971,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -2932,39 +2980,42 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I50" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="K50" t="str">
         <f t="shared" si="1"/>
-        <v>'MA75_slope_p',</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA25_slope_m',</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="1"/>
-        <v>'MA75_slope_m',</v>
+        <v>'MA50_slope',</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,30 +3023,27 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_devi',</v>
+        <v>'MA50_slope_p',</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,7 +3052,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -3013,45 +3061,45 @@
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I53" t="s">
-        <v>102</v>
+      <c r="I53" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" ref="K53" si="3">"'"&amp;D53&amp;"'"&amp;","</f>
-        <v>'MA25_devi_p',</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>'MA50_slope_m',</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_devi_m',</v>
+        <v>'MA75_slope',</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,27 +3107,27 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_p',</v>
+        <v>'MA75_slope_p',</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3088,48 +3136,57 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I56" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p',</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA75_slope_m',</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m',</v>
+        <v>'MA25_devi',</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,23 +3195,26 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m',</v>
+        <f t="shared" ref="K58" si="3">"'"&amp;D58&amp;"'"&amp;","</f>
+        <v>'MA25_dev_p',</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3162,217 +3222,279 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>57</v>
-      </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="1"/>
+        <v>'MA25_dev_m',</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p',</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p',</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m',</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m',</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
         <v>'BLGR_sigma_p_devi',</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>144</v>
-      </c>
-      <c r="K60" t="str">
-        <f t="shared" ref="K60" si="4">"'"&amp;D60&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_p_devi_p',</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" t="s">
-        <v>145</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" ref="K61:K63" si="5">"'"&amp;D61&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_p_devi_m',</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62" t="s">
-        <v>147</v>
-      </c>
-      <c r="K62" t="str">
+    <row r="65" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" ref="K65" si="4">"'"&amp;D65&amp;"'"&amp;","</f>
+        <v>'BLGR_sigma_p_dev_p',</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>130</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K68" si="5">"'"&amp;D66&amp;"'"&amp;","</f>
+        <v>'BLGR_sigma_p_dev_m',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" t="str">
         <f t="shared" si="5"/>
         <v>'BLGR_2sigma_p_devi',</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="5"/>
-        <v>'BLGR_2sigma_p_devi_p',</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I64" t="s">
-        <v>149</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_devi_m',</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>108</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_p',</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_m',</v>
-      </c>
-    </row>
     <row r="68" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="5"/>
+        <v>'BLGR_2sigma_p_dev_p',</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3381,46 +3503,169 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>133</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m_devi_p',</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'BLGR_2sigma_p_dev_m',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m_devi_m',</v>
+        <v>80</v>
+      </c>
+      <c r="I70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_dev_p',</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_dev_m',</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m_dev_p',</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m_dev_m',</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K70" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}"/>
+  <autoFilter ref="B2:K75" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="〇"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/説明変数.ver.0.2.xlsx
+++ b/説明変数.ver.0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEC353-6599-814D-A273-E5C67ACA7597}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6FC6B42-284A-284D-8320-A6212D8446C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1320" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
@@ -777,10 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>price_end_diff_N1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1234,6 +1230,10 @@
   </si>
   <si>
     <t>７５日移動平均の傾き（負のときのみ表示）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_close_diff_N1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1602,12 +1602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1689,7 +1688,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B75" si="0">ROW()-2</f>
         <v>2</v>
@@ -1717,7 +1716,7 @@
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1754,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1779,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1804,7 +1803,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -1829,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1854,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1873,7 +1872,7 @@
         <v>'wd_Friday',</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1901,7 +1900,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1929,7 +1928,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1957,7 +1956,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1985,7 +1984,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1994,7 +1993,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>60</v>
@@ -2013,7 +2012,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>'price_end_diff_N1',</v>
+        <v>'price_close_diff_N1',</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,7 +2071,7 @@
         <v>'down_flg',</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2109,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -2137,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2165,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2193,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2221,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2249,7 +2248,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2292,7 +2291,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>77</v>
@@ -2323,7 +2322,7 @@
         <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>78</v>
@@ -2351,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>79</v>
@@ -2361,7 +2360,7 @@
         <v>'box_length',</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2398,7 +2397,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -2407,13 +2406,13 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
@@ -2426,7 +2425,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -2435,20 +2434,20 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>'RCI9_m',</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2482,7 +2481,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -2491,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
@@ -2507,7 +2506,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
@@ -2516,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
@@ -2544,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>12</v>
@@ -2582,7 +2581,7 @@
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2613,7 +2612,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2641,7 +2640,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2669,7 +2668,7 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2678,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -2700,7 +2699,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -2715,7 +2714,7 @@
         <v>80</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
@@ -2728,7 +2727,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2750,13 +2749,13 @@
         <v>'cross_25_50_1',</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -2778,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -2793,7 +2792,7 @@
         <v>80</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
@@ -2806,7 +2805,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -2828,13 +2827,13 @@
         <v>'cross_25_75_1',</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -2856,7 +2855,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -2871,7 +2870,7 @@
         <v>80</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
@@ -2884,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -2906,7 +2905,7 @@
         <v>'cross_50_75_1',</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2927,7 +2926,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
         <v>29</v>
@@ -2943,7 +2942,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -2952,13 +2951,13 @@
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="1"/>
@@ -2971,7 +2970,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -2980,20 +2979,20 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="1"/>
         <v>'MA25_slope_m',</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3024,7 +3023,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3033,13 +3032,13 @@
         <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="1"/>
@@ -3052,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -3061,20 +3060,20 @@
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="1"/>
         <v>'MA50_slope_m',</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3092,7 +3091,7 @@
         <v>47</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
         <v>31</v>
@@ -3108,7 +3107,7 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -3117,13 +3116,13 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>
@@ -3136,7 +3135,7 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -3145,20 +3144,20 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="1"/>
         <v>'MA75_slope_m',</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3167,7 +3166,7 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -3176,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="1"/>
@@ -3195,7 +3194,7 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
@@ -3204,13 +3203,13 @@
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" ref="K58" si="3">"'"&amp;D58&amp;"'"&amp;","</f>
@@ -3223,7 +3222,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -3232,20 +3231,20 @@
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="1"/>
         <v>'MA25_dev_m',</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3269,14 +3268,14 @@
         <v>80</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3297,14 +3296,14 @@
         <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3325,14 +3324,14 @@
         <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3353,14 +3352,14 @@
         <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3369,7 +3368,7 @@
         <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
@@ -3378,13 +3377,13 @@
         <v>80</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="1"/>
@@ -3397,7 +3396,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
@@ -3406,13 +3405,13 @@
         <v>12</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" ref="K65" si="4">"'"&amp;D65&amp;"'"&amp;","</f>
@@ -3425,7 +3424,7 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
@@ -3434,26 +3433,26 @@
         <v>12</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K68" si="5">"'"&amp;D66&amp;"'"&amp;","</f>
         <v>'BLGR_sigma_p_dev_m',</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -3462,7 +3461,7 @@
         <v>80</v>
       </c>
       <c r="I67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="5"/>
@@ -3475,7 +3474,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
@@ -3484,13 +3483,13 @@
         <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="5"/>
@@ -3503,7 +3502,7 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
@@ -3512,35 +3511,35 @@
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_dev_m',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s">
         <v>133</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_dev_m',</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="1">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3548,7 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
@@ -3558,10 +3557,10 @@
         <v>12</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="1"/>
@@ -3574,7 +3573,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -3583,23 +3582,23 @@
         <v>12</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_sigma_m_dev_m',</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -3614,7 +3613,7 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
@@ -3623,10 +3622,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="1"/>
@@ -3639,7 +3638,7 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -3648,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="1"/>
@@ -3659,13 +3658,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K75" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="〇"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:K75" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
